--- a/DataDrivenPOIArtifactID/src/test/java/testData/ExportExcel.xlsx
+++ b/DataDrivenPOIArtifactID/src/test/java/testData/ExportExcel.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A8" sqref="A8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
